--- a/public/assets/templates/ics_template.xlsx
+++ b/public/assets/templates/ics_template.xlsx
@@ -813,6 +813,156 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,156 +998,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1019,56 +1019,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>334328</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>18099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>196056</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="C:\Users\User\AppData\Local\Microsoft\Windows\INetCache\Content.Word\20230705_135006.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="7280" t="119256" r="14487" b="-87102"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="2243138" y="3967164"/>
-          <a:ext cx="4915851" cy="2637472"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1082,7 +1032,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="C:\Users\JunPrime\Desktop\complete quezon LOGO.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038165EB-DAA4-4548-9F2A-57A4EE7F1F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038165EB-DAA4-4548-9F2A-57A4EE7F1F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1091,7 +1041,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1407,7 +1357,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1428,40 +1378,40 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="115"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6"/>
@@ -1474,16 +1424,16 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="118"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="9"/>
@@ -1496,16 +1446,16 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="20.25">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="121"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="12"/>
@@ -1546,46 +1496,46 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="87"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104" t="s">
+      <c r="D12" s="81"/>
+      <c r="E12" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="100" t="s">
+      <c r="F12" s="83"/>
+      <c r="G12" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="108" t="s">
+      <c r="H12" s="60" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A13" s="99"/>
-      <c r="B13" s="101"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="109"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="23" t="s">
@@ -1615,8 +1565,8 @@
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
       <c r="D15" s="31"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="32"/>
       <c r="H15" s="33"/>
     </row>
@@ -1625,8 +1575,8 @@
       <c r="B16" s="29"/>
       <c r="C16" s="34"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="35"/>
       <c r="H16" s="36"/>
     </row>
@@ -1847,12 +1797,12 @@
       <c r="D38" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="92" t="s">
+      <c r="E38" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="95"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="37"/>
@@ -1861,12 +1811,12 @@
       <c r="D39" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="95" t="s">
+      <c r="E39" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="98"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="37"/>
@@ -1875,12 +1825,12 @@
       <c r="D40" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="95" t="s">
+      <c r="E40" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="98"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="37"/>
@@ -1889,56 +1839,56 @@
       <c r="D41" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="95" t="s">
+      <c r="E41" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="98"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
       <c r="F42" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="73" t="s">
+      <c r="G42" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="74"/>
+      <c r="H42" s="101"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="75"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
       <c r="F43" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="79" t="s">
+      <c r="G43" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="80"/>
+      <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
       <c r="F44" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="81"/>
-      <c r="H44" s="82"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="51" t="s">
@@ -1975,32 +1925,32 @@
       <c r="H47" s="57"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="85" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="86"/>
-      <c r="H48" s="87"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="75"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="62" t="s">
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="64"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="114"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6"/>
@@ -2013,47 +1963,41 @@
       <c r="H50" s="57"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="67" t="s">
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="68"/>
-      <c r="H51" s="69"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="119"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="71" t="s">
+      <c r="B52" s="120"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="F52:H52"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="E15:F15"/>
@@ -2067,12 +2011,18 @@
     <mergeCell ref="A43:E44"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/public/assets/templates/ics_template.xlsx
+++ b/public/assets/templates/ics_template.xlsx
@@ -684,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -732,9 +732,6 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -813,6 +810,120 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -855,12 +966,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -890,114 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1032,7 +1029,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="C:\Users\JunPrime\Desktop\complete quezon LOGO.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038165EB-DAA4-4548-9F2A-57A4EE7F1F70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038165EB-DAA4-4548-9F2A-57A4EE7F1F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1354,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1378,40 +1375,40 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="104"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6"/>
@@ -1424,16 +1421,16 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="9"/>
@@ -1446,16 +1443,16 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="20.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="110"/>
     </row>
     <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="12"/>
@@ -1502,40 +1499,40 @@
       <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82" t="s">
+      <c r="D12" s="116"/>
+      <c r="E12" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="78" t="s">
+      <c r="F12" s="118"/>
+      <c r="G12" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="97" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="61"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="98"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="23" t="s">
@@ -1547,362 +1544,362 @@
       <c r="C14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="25" t="str">
-        <f>C14</f>
-        <v>{{$cost}}</v>
-      </c>
-      <c r="E14" s="26" t="s">
+      <c r="D14" s="27" t="e">
+        <f>C14*A14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="42"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="42"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="38"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="93" t="s">
+      <c r="E38" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="95"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="82"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="46" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="96" t="s">
+      <c r="E39" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="98"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="85"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="47" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="96" t="s">
+      <c r="E40" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="98"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="85"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="46" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="96" t="s">
+      <c r="E41" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="98"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="85"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="49" t="s">
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="100" t="s">
+      <c r="G42" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="101"/>
+      <c r="H42" s="88"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="102"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="49" t="s">
+      <c r="A43" s="89"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="106" t="s">
+      <c r="G43" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="107"/>
+      <c r="H43" s="94"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A44" s="104"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="50" t="s">
+      <c r="A44" s="91"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="108"/>
-      <c r="H44" s="109"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="96"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="54" t="s">
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="55"/>
-      <c r="H45" s="56"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="55"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="6"/>
@@ -1912,7 +1909,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="57"/>
+      <c r="H46" s="56"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="6"/>
@@ -1922,82 +1919,88 @@
       <c r="E47" s="7"/>
       <c r="F47" s="6"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="57"/>
+      <c r="H47" s="56"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A48" s="86" t="s">
+      <c r="A48" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="88" t="s">
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="73" t="s">
         <v>31</v>
       </c>
       <c r="G48" s="74"/>
       <c r="H48" s="75"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="111"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="112" t="s">
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="113"/>
-      <c r="H49" s="114"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6"/>
-      <c r="B50" s="58"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="57"/>
+      <c r="H50" s="56"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="115" t="s">
+      <c r="A51" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="117" t="s">
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="118"/>
-      <c r="H51" s="119"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="121" t="s">
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="E15:F15"/>
@@ -2011,18 +2014,12 @@
     <mergeCell ref="A43:E44"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="F52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
